--- a/va_facility_data_2025-02-20/Grayson County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grayson%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Grayson County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grayson%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9f762f140029494cb63dc56c2396cf06"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2f6b766017f247f8a35f6ef1e30936a5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rabc2c65d84c34db086acdcc9daffd344"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb4e69a69b8d64e97892aae8733ab0db6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2cdcdd4fd1fb40709260dfb150abfd21"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb3b1e981081d4e9793c8583b1b7e49c9"/>
   </x:sheets>
 </x:workbook>
 </file>
